--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6679,6 +6679,435 @@
       </c>
       <c r="D468">
         <v>33.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>32.8</v>
+      </c>
+      <c r="D469">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>32.4</v>
+      </c>
+      <c r="D470">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>31.9</v>
+      </c>
+      <c r="D471">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>32</v>
+      </c>
+      <c r="D472">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>32.2</v>
+      </c>
+      <c r="D473">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>31.6</v>
+      </c>
+      <c r="D474">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>31.8</v>
+      </c>
+      <c r="D475">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>31.4</v>
+      </c>
+      <c r="D476">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>31.5</v>
+      </c>
+      <c r="D477">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>31.4</v>
+      </c>
+      <c r="D478">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>31.8</v>
+      </c>
+      <c r="D479">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>32</v>
+      </c>
+      <c r="D480">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>31.4</v>
+      </c>
+      <c r="D481">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>31.4</v>
+      </c>
+      <c r="D482">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>32</v>
+      </c>
+      <c r="D483">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>30.9</v>
+      </c>
+      <c r="D484">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>30.6</v>
+      </c>
+      <c r="D485">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>32.4</v>
+      </c>
+      <c r="D486">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>31.8</v>
+      </c>
+      <c r="D487">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>31.4</v>
+      </c>
+      <c r="D488">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>31.3</v>
+      </c>
+      <c r="D489">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>31.9</v>
+      </c>
+      <c r="D490">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>32</v>
+      </c>
+      <c r="D491">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>33.4</v>
+      </c>
+      <c r="D492">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>33</v>
+      </c>
+      <c r="D493">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>32.3</v>
+      </c>
+      <c r="D494">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>31.6</v>
+      </c>
+      <c r="D495">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>31.3</v>
+      </c>
+      <c r="D496">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>32.1</v>
+      </c>
+      <c r="D497">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>31.8</v>
+      </c>
+      <c r="D498">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>31.4</v>
+      </c>
+      <c r="D499">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>31.3</v>
+      </c>
+      <c r="D500">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>31.8</v>
+      </c>
+      <c r="D501">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>32</v>
+      </c>
+      <c r="D502">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>31.4</v>
+      </c>
+      <c r="D503">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>31.3</v>
+      </c>
+      <c r="D504">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>31.6</v>
+      </c>
+      <c r="D505">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>31.6</v>
+      </c>
+      <c r="D506">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>31.4</v>
+      </c>
+      <c r="D507">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>467</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6720,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>467</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6746,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.23511777301921</v>
+        <v>31.27667984189716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6762,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.49464668094213</v>
+        <v>30.62154150197621</v>
       </c>
     </row>
   </sheetData>
@@ -6884,7 +7313,7 @@
         <v>0.9667142651414498</v>
       </c>
       <c r="D2">
-        <v>0.8756263424643193</v>
+        <v>0.8744561589622373</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6906,7 +7335,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8756263424643193</v>
+        <v>0.8744561589622373</v>
       </c>
       <c r="C4">
         <v>0.8641602862125554</v>
@@ -6938,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.222840984241219</v>
+        <v>3.102814060387026</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6954,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.994168661642188</v>
+        <v>3.865909701103488</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D507"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7108,6 +7108,358 @@
       </c>
       <c r="D507">
         <v>31.7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>31.6</v>
+      </c>
+      <c r="D508">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>31.8</v>
+      </c>
+      <c r="D509">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>28.4</v>
+      </c>
+      <c r="D510">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>28.9</v>
+      </c>
+      <c r="D511">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>29.8</v>
+      </c>
+      <c r="D512">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>30.7</v>
+      </c>
+      <c r="D513">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>30.7</v>
+      </c>
+      <c r="D514">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>30.4</v>
+      </c>
+      <c r="D515">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>30</v>
+      </c>
+      <c r="D516">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>30.7</v>
+      </c>
+      <c r="D517">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>30.3</v>
+      </c>
+      <c r="D518">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>28.9</v>
+      </c>
+      <c r="D519">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>33</v>
+      </c>
+      <c r="D520">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>33.1</v>
+      </c>
+      <c r="D521">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>33.2</v>
+      </c>
+      <c r="D522">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>31.6</v>
+      </c>
+      <c r="D523">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>31.9</v>
+      </c>
+      <c r="D524">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>31.7</v>
+      </c>
+      <c r="D525">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>31.8</v>
+      </c>
+      <c r="D526">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>32</v>
+      </c>
+      <c r="D527">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>31.1</v>
+      </c>
+      <c r="D528">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>31</v>
+      </c>
+      <c r="D529">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>31.3</v>
+      </c>
+      <c r="D530">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>32.8</v>
+      </c>
+      <c r="D531">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>31.7</v>
+      </c>
+      <c r="D532">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>31.5</v>
+      </c>
+      <c r="D533">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>31.8</v>
+      </c>
+      <c r="D534">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>31.4</v>
+      </c>
+      <c r="D535">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>31.6</v>
+      </c>
+      <c r="D536">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>31</v>
+      </c>
+      <c r="D537">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>32</v>
+      </c>
+      <c r="D538">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>32.2</v>
+      </c>
+      <c r="D539">
+        <v>32.6</v>
       </c>
     </row>
   </sheetData>
@@ -7133,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7149,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>506</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7175,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.27667984189716</v>
+        <v>31.27490706319703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7191,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.62154150197621</v>
+        <v>30.67509293680297</v>
       </c>
     </row>
   </sheetData>
@@ -7310,10 +7662,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9667142651414498</v>
+        <v>0.9667142651414486</v>
       </c>
       <c r="D2">
-        <v>0.8744561589622373</v>
+        <v>0.8735524052030764</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7321,13 +7673,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9667142651414498</v>
+        <v>0.9667142651414486</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8641602862125554</v>
+        <v>0.8641602862125544</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7335,10 +7687,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8744561589622373</v>
+        <v>0.8735524052030764</v>
       </c>
       <c r="C4">
-        <v>0.8641602862125554</v>
+        <v>0.8641602862125544</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7367,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.102814060387026</v>
+        <v>3.022051557333659</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7375,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.497220326477774</v>
+        <v>3.497220326477776</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7383,7 +7735,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.865909701103488</v>
+        <v>3.766332835362325</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 2.0 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7460,6 +7460,512 @@
       </c>
       <c r="D539">
         <v>32.6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>32.8</v>
+      </c>
+      <c r="D540">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>32.4</v>
+      </c>
+      <c r="D541">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>32.8</v>
+      </c>
+      <c r="D542">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>32.3</v>
+      </c>
+      <c r="D543">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>32</v>
+      </c>
+      <c r="D544">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>32.8</v>
+      </c>
+      <c r="D545">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>32.6</v>
+      </c>
+      <c r="D546">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>32.8</v>
+      </c>
+      <c r="D547">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>32</v>
+      </c>
+      <c r="D548">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>31.7</v>
+      </c>
+      <c r="D549">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>31.9</v>
+      </c>
+      <c r="D550">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>32</v>
+      </c>
+      <c r="D551">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>31.4</v>
+      </c>
+      <c r="D552">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>31</v>
+      </c>
+      <c r="D553">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>31.6</v>
+      </c>
+      <c r="D554">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>31.6</v>
+      </c>
+      <c r="D555">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>31.7</v>
+      </c>
+      <c r="D556">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>31.5</v>
+      </c>
+      <c r="D557">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>32</v>
+      </c>
+      <c r="D558">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>32.4</v>
+      </c>
+      <c r="D559">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>30.4</v>
+      </c>
+      <c r="D560">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>31.1</v>
+      </c>
+      <c r="D561">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>34.5</v>
+      </c>
+      <c r="D562">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>31.3</v>
+      </c>
+      <c r="D563">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>31</v>
+      </c>
+      <c r="D564">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>31.4</v>
+      </c>
+      <c r="D565">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>30.8</v>
+      </c>
+      <c r="D566">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>31.8</v>
+      </c>
+      <c r="D567">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>31.1</v>
+      </c>
+      <c r="D568">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>31</v>
+      </c>
+      <c r="D569">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>31.5</v>
+      </c>
+      <c r="D570">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>31</v>
+      </c>
+      <c r="D571">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>30</v>
+      </c>
+      <c r="D572">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>30.4</v>
+      </c>
+      <c r="D573">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>29.6</v>
+      </c>
+      <c r="D574">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>30.1</v>
+      </c>
+      <c r="D575">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>30.3</v>
+      </c>
+      <c r="D576">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>30.1</v>
+      </c>
+      <c r="D577">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>29.8</v>
+      </c>
+      <c r="D578">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>29.6</v>
+      </c>
+      <c r="D579">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>29.9</v>
+      </c>
+      <c r="D580">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>30.2</v>
+      </c>
+      <c r="D581">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>29.8</v>
+      </c>
+      <c r="D582">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>30</v>
+      </c>
+      <c r="D583">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>30.4</v>
+      </c>
+      <c r="D584">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>29.8</v>
+      </c>
+      <c r="D585">
+        <v>29.6</v>
       </c>
     </row>
   </sheetData>
@@ -7485,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>538</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7501,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>538</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7527,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.27490706319703</v>
+        <v>31.27414383561644</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7543,7 +8049,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.67509293680297</v>
+        <v>30.73664383561644</v>
       </c>
     </row>
   </sheetData>
@@ -7665,7 +8171,7 @@
         <v>0.9667142651414486</v>
       </c>
       <c r="D2">
-        <v>0.8735524052030764</v>
+        <v>0.8727886168099498</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7687,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8735524052030764</v>
+        <v>0.8727886168099498</v>
       </c>
       <c r="C4">
         <v>0.8641602862125544</v>
@@ -7719,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.022051557333659</v>
+        <v>2.916169969869638</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7735,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.766332835362325</v>
+        <v>3.634732353678588</v>
       </c>
     </row>
   </sheetData>
